--- a/medicine/Psychotrope/Barbaroux_(cépage)/Barbaroux_(cépage).xlsx
+++ b/medicine/Psychotrope/Barbaroux_(cépage)/Barbaroux_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Barbaroux_(c%C3%A9page)</t>
+          <t>Barbaroux_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le barbaroux Rs[1] est un cépage rosé utilisé dans le vignoble des côtes-de-provence, de l'AOC cassis, il se trouve aussi en Corse et Romagne où il est nommé barbarossa.
+Le barbaroux Rs est un cépage rosé utilisé dans le vignoble des côtes-de-provence, de l'AOC cassis, il se trouve aussi en Corse et Romagne où il est nommé barbarossa.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Barbaroux_(c%C3%A9page)</t>
+          <t>Barbaroux_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plus ancienne mention de ce cépage date de 1667. Il est décrit comme étant utilisé à la fois pour le vin et comme raisin de table à Toulon et en Provence. Le nom de barbaroux vient du terme barbare qui signifie sauvage en provençal. La première apparition de l'orthographe moderne de Barbaroux est apparu en 1715[2]. En Provence, on le trouve souvent en treille devant une maison[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plus ancienne mention de ce cépage date de 1667. Il est décrit comme étant utilisé à la fois pour le vin et comme raisin de table à Toulon et en Provence. Le nom de barbaroux vient du terme barbare qui signifie sauvage en provençal. La première apparition de l'orthographe moderne de Barbaroux est apparu en 1715. En Provence, on le trouve souvent en treille devant une maison.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Barbaroux_(c%C3%A9page)</t>
+          <t>Barbaroux_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cépage donne des vins rouges aromatiques avec une faible acidité, sa teneur en alcool est moyenne et il a une bonne aptitude au vieillissement. Son débourrement est précoce et sa vigueur moyenne. Très productif, il a un port plus ou moins érigé et . Il se contente de terres peu fertiles et d'un climat chaud. Sa maturité se situe à la troisième époque hâtive. Il est sensible à l'oïdium, au mildiou et à la pourriture grise, cela a freiné son expansion qui est en baisse constante. Avec ses grandes grappes à baies moyennes et à la peau rosée, c'est un cépage à double fin, qui est aussi utilisé comme raisin de table. Pour la culture en France seul le clone 937 est approuvé[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cépage donne des vins rouges aromatiques avec une faible acidité, sa teneur en alcool est moyenne et il a une bonne aptitude au vieillissement. Son débourrement est précoce et sa vigueur moyenne. Très productif, il a un port plus ou moins érigé et . Il se contente de terres peu fertiles et d'un climat chaud. Sa maturité se situe à la troisième époque hâtive. Il est sensible à l'oïdium, au mildiou et à la pourriture grise, cela a freiné son expansion qui est en baisse constante. Avec ses grandes grappes à baies moyennes et à la peau rosée, c'est un cépage à double fin, qui est aussi utilisé comme raisin de table. Pour la culture en France seul le clone 937 est approuvé.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Barbaroux_(c%C3%A9page)</t>
+          <t>Barbaroux_(cépage)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cépage a comme synonyme : 
 Aronova Boroda
